--- a/data/trans_orig/P50A_2-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P50A_2-Dificultad-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>2731</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>902</v>
+        <v>892</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7781</v>
+        <v>7341</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002714001824362341</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0008967077926777907</v>
+        <v>0.0008864548943196994</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.007732386360403062</v>
+        <v>0.007294840441924201</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -776,19 +776,19 @@
         <v>2731</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>897</v>
+        <v>64</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>8147</v>
+        <v>8169</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.001319139432868606</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0004330713015152627</v>
+        <v>3.073890551719903e-05</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.003935224761418017</v>
+        <v>0.003945815642806442</v>
       </c>
     </row>
     <row r="5">
@@ -808,7 +808,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4557</v>
+        <v>3646</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0007222552894417965</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.004528707578098116</v>
+        <v>0.003622922978953069</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5945</v>
+        <v>6857</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.001820198441112613</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.005586910393882893</v>
+        <v>0.006444416001488677</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>3</v>
@@ -850,16 +850,16 @@
         <v>725</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>8133</v>
+        <v>7742</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.001286543639035499</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0003503494805428148</v>
+        <v>0.0003500917072689528</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.003928266569153043</v>
+        <v>0.003739237283234859</v>
       </c>
     </row>
     <row r="6">
@@ -876,19 +876,19 @@
         <v>6297</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2179</v>
+        <v>2134</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>15368</v>
+        <v>15764</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.006257631497203676</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.002165119757298735</v>
+        <v>0.002120239020280831</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.01527193078039449</v>
+        <v>0.01566521728091963</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>6</v>
@@ -897,19 +897,19 @@
         <v>5981</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2020</v>
+        <v>2916</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>11917</v>
+        <v>12134</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.005620685267405793</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.001897938112596711</v>
+        <v>0.002740422757351174</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.01119971483305911</v>
+        <v>0.01140292946980784</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>11</v>
@@ -918,19 +918,19 @@
         <v>12278</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>6771</v>
+        <v>6150</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>21842</v>
+        <v>22406</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.00593027271160023</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.00327047575635577</v>
+        <v>0.00297068859675261</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01054965873390704</v>
+        <v>0.0108221565644122</v>
       </c>
     </row>
     <row r="7">
@@ -947,19 +947,19 @@
         <v>996559</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>987475</v>
+        <v>987662</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1001578</v>
+        <v>1001898</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9903061113889922</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9812787778486255</v>
+        <v>0.9814653281115442</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9952942098330494</v>
+        <v>0.9956120238159196</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>971</v>
@@ -968,19 +968,19 @@
         <v>1056162</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1050358</v>
+        <v>1048317</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>1061092</v>
+        <v>1060132</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9925591162914816</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9871043031736769</v>
+        <v>0.9851865519662484</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9971920629412717</v>
+        <v>0.9962895030895178</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1905</v>
@@ -989,19 +989,19 @@
         <v>2052721</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2042245</v>
+        <v>2041622</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>2059839</v>
+        <v>2059865</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9914640442164957</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9864042110072546</v>
+        <v>0.9861029348376223</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9949017985719858</v>
+        <v>0.9949145045444673</v>
       </c>
     </row>
     <row r="8">
@@ -1143,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4759</v>
+        <v>5762</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0009914190853094168</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.004950561475700016</v>
+        <v>0.005993459727133832</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>4794</v>
+        <v>5415</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0004774064524916578</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.002401252445871615</v>
+        <v>0.002712479183926487</v>
       </c>
     </row>
     <row r="11">
@@ -1203,19 +1203,19 @@
         <v>6672</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3040</v>
+        <v>2391</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>14898</v>
+        <v>14061</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.006940125911874731</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.003161880500735482</v>
+        <v>0.002486711517821941</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01549737653814767</v>
+        <v>0.0146267942783363</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>3</v>
@@ -1224,19 +1224,19 @@
         <v>3866</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>969</v>
+        <v>958</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>10811</v>
+        <v>11135</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.003734751023564894</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0009361192628582112</v>
+        <v>0.0009254662929848883</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01044504604186761</v>
+        <v>0.01075768044235364</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>9</v>
@@ -1245,19 +1245,19 @@
         <v>10537</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>4476</v>
+        <v>4828</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>20380</v>
+        <v>20349</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.005278262417493986</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.002241989808155016</v>
+        <v>0.002418605453263132</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01020844202956221</v>
+        <v>0.01019333215245542</v>
       </c>
     </row>
     <row r="12">
@@ -1274,19 +1274,19 @@
         <v>953692</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>944577</v>
+        <v>946186</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>958065</v>
+        <v>958181</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9920684550028158</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9825863838735788</v>
+        <v>0.9842598018642057</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9966176517383563</v>
+        <v>0.9967379526463965</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>963</v>
@@ -1295,19 +1295,19 @@
         <v>1031163</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1024218</v>
+        <v>1023894</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>1034060</v>
+        <v>1034071</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9962652489764351</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9895549539581324</v>
+        <v>0.9892423195576452</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9990638807371418</v>
+        <v>0.999074533707015</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1867</v>
@@ -1316,19 +1316,19 @@
         <v>1984856</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1975034</v>
+        <v>1974486</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1991101</v>
+        <v>1990693</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9942443311300143</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9893242520160185</v>
+        <v>0.9890500118890448</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.99737245842889</v>
+        <v>0.9971682524314827</v>
       </c>
     </row>
     <row r="13">
@@ -1423,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>8046</v>
+        <v>7105</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.002529715422448054</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.009202330539699086</v>
+        <v>0.008126238642641895</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>0</v>
@@ -1457,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>7741</v>
+        <v>7907</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.001282932690149907</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.004490095440179593</v>
+        <v>0.004586414337131544</v>
       </c>
     </row>
     <row r="15">
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>6164</v>
+        <v>5172</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.00117749234172336</v>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.007049488762459433</v>
+        <v>0.005915391935202159</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>0</v>
@@ -1520,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>5138</v>
+        <v>5745</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.0005971594291567334</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.002980100470136525</v>
+        <v>0.003332223047828663</v>
       </c>
     </row>
     <row r="16">
@@ -1546,19 +1546,19 @@
         <v>9068</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4126</v>
+        <v>4678</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>17517</v>
+        <v>16796</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01037037375935345</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.004719057876269988</v>
+        <v>0.005349601756257232</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02003394609666762</v>
+        <v>0.01920916359240237</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -1567,19 +1567,19 @@
         <v>3080</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1000</v>
+        <v>991</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>8296</v>
+        <v>9129</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.003624346649128501</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.00117651716583885</v>
+        <v>0.001166359127070105</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.00976356296677193</v>
+        <v>0.01074384744710457</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>12</v>
@@ -1588,19 +1588,19 @@
         <v>12147</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6239</v>
+        <v>6683</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>20563</v>
+        <v>21107</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.007045561000571155</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.003618691662165435</v>
+        <v>0.003876031936314213</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01192672538144973</v>
+        <v>0.01224200955829531</v>
       </c>
     </row>
     <row r="17">
@@ -1617,19 +1617,19 @@
         <v>862064</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>852443</v>
+        <v>853129</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>867955</v>
+        <v>867388</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9859224184764751</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9749196046221046</v>
+        <v>0.9757036869684492</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9926600886622284</v>
+        <v>0.9920112310258499</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>794</v>
@@ -1638,19 +1638,19 @@
         <v>846655</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>841439</v>
+        <v>840606</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>848735</v>
+        <v>848744</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9963756533508715</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9902364370332281</v>
+        <v>0.9892561525528955</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9988234828341612</v>
+        <v>0.9988336408729299</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1602</v>
@@ -1659,19 +1659,19 @@
         <v>1708719</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1699307</v>
+        <v>1699980</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1715236</v>
+        <v>1715323</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9910743468801222</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9856153147201311</v>
+        <v>0.9860057542981976</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9948542627487874</v>
+        <v>0.9949043792711016</v>
       </c>
     </row>
     <row r="18">
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5815</v>
+        <v>5823</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.003835594043017258</v>
@@ -1822,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01165633963268546</v>
+        <v>0.01167156072081079</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>0</v>
@@ -1847,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>6942</v>
+        <v>6738</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.002030614426112534</v>
@@ -1856,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.007366221643825151</v>
+        <v>0.007150086217539669</v>
       </c>
     </row>
     <row r="21">
@@ -1873,19 +1873,19 @@
         <v>6393</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2536</v>
+        <v>1905</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>18584</v>
+        <v>15344</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01281429262327844</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.005083755497816853</v>
+        <v>0.003818957585621886</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.03725012333875564</v>
+        <v>0.03075624598791654</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>2</v>
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>6588</v>
+        <v>6565</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.004281083497972802</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.01485641055530623</v>
+        <v>0.01480439533774092</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>7</v>
@@ -1915,19 +1915,19 @@
         <v>8291</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>3406</v>
+        <v>3703</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>17222</v>
+        <v>17351</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.008798677736712935</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.003614415697601936</v>
+        <v>0.003929149187714808</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.01827513895760614</v>
+        <v>0.018412582838875</v>
       </c>
     </row>
     <row r="22">
@@ -1944,19 +1944,19 @@
         <v>490589</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>480068</v>
+        <v>481109</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>495098</v>
+        <v>495393</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9833501133337043</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9622599779179292</v>
+        <v>0.9643463685865123</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9923874909154997</v>
+        <v>0.9929783448982431</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>401</v>
@@ -1965,7 +1965,7 @@
         <v>441562</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>436872</v>
+        <v>436895</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>443460</v>
@@ -1974,7 +1974,7 @@
         <v>0.9957189165020272</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9851435894446938</v>
+        <v>0.985195604662259</v>
       </c>
       <c r="P22" s="6" t="n">
         <v>1</v>
@@ -1986,19 +1986,19 @@
         <v>932151</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>922326</v>
+        <v>922750</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>937715</v>
+        <v>937593</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9891707078371745</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9787449896627315</v>
+        <v>0.9791948217016898</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9950746331360513</v>
+        <v>0.9949452381607137</v>
       </c>
     </row>
     <row r="23">
@@ -2090,19 +2090,19 @@
         <v>4943</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1822</v>
+        <v>1817</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>11549</v>
+        <v>10975</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.001479557059604637</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0005453182951727912</v>
+        <v>0.0005437589968627657</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.003456926503992359</v>
+        <v>0.003285174255586629</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>0</v>
@@ -2124,19 +2124,19 @@
         <v>4943</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1837</v>
+        <v>1818</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>11960</v>
+        <v>11623</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.0007341308097381893</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0002728929160536414</v>
+        <v>0.0002699760939979091</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.001776216696465816</v>
+        <v>0.001726244154699266</v>
       </c>
     </row>
     <row r="25">
@@ -2153,19 +2153,19 @@
         <v>4623</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1655</v>
+        <v>1738</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>10165</v>
+        <v>10462</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.001383762878832216</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0004953131848479934</v>
+        <v>0.0005202141292915251</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.003042710318975924</v>
+        <v>0.003131588278347486</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2</v>
@@ -2177,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>6866</v>
+        <v>6775</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0005709502459621565</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.002024081817731609</v>
+        <v>0.001997193952599751</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>7</v>
@@ -2195,19 +2195,19 @@
         <v>6560</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2679</v>
+        <v>2688</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>12844</v>
+        <v>12555</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.000974253918815286</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0003979461528504554</v>
+        <v>0.0003991479794915624</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.001907504842956998</v>
+        <v>0.001864588000921114</v>
       </c>
     </row>
     <row r="26">
@@ -2224,19 +2224,19 @@
         <v>28429</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>17994</v>
+        <v>18899</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>41131</v>
+        <v>42085</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.008509496091278771</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.005385996009798414</v>
+        <v>0.005656876651082283</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01231149893260603</v>
+        <v>0.01259702817604488</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>14</v>
@@ -2245,19 +2245,19 @@
         <v>14825</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>7950</v>
+        <v>8808</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>24263</v>
+        <v>24711</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.004370085395257809</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.002343588815332908</v>
+        <v>0.002596602008117553</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.007152241729454717</v>
+        <v>0.007284573297566464</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>39</v>
@@ -2266,19 +2266,19 @@
         <v>43254</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>30593</v>
+        <v>30731</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>60251</v>
+        <v>57861</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.006423989911059876</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.004543622355099525</v>
+        <v>0.004564073604795235</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.008948412116736361</v>
+        <v>0.008593384755180945</v>
       </c>
     </row>
     <row r="27">
@@ -2295,19 +2295,19 @@
         <v>3302905</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>3288808</v>
+        <v>3288341</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>3314665</v>
+        <v>3313871</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.9886271839702844</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9844077639951966</v>
+        <v>0.9842680826456208</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9921472005933347</v>
+        <v>0.991909678754107</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>3129</v>
@@ -2316,19 +2316,19 @@
         <v>3375543</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>3366695</v>
+        <v>3365615</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>3383407</v>
+        <v>3382278</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.9950589643587801</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.9924507626184859</v>
+        <v>0.9921325270393263</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.9973772796481024</v>
+        <v>0.9970443502483933</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>6225</v>
@@ -2337,19 +2337,19 @@
         <v>6678447</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>6659280</v>
+        <v>6662052</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>6692705</v>
+        <v>6692122</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.9918676253603866</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.9890210452636959</v>
+        <v>0.9894326898575742</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9939852255309736</v>
+        <v>0.9938986171464278</v>
       </c>
     </row>
     <row r="28">
@@ -2697,7 +2697,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6462</v>
+        <v>7406</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.00175798006497011</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.005357378847917081</v>
+        <v>0.006140013786710869</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>7417</v>
+        <v>6434</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0009214080599566762</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.003223008784618587</v>
+        <v>0.002795933804248522</v>
       </c>
     </row>
     <row r="5">
@@ -2747,7 +2747,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6069</v>
+        <v>6024</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0009677021121809128</v>
@@ -2756,7 +2756,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.005542026080770543</v>
+        <v>0.005501044298550533</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -2768,7 +2768,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>4635</v>
+        <v>4622</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0007662895602883712</v>
@@ -2777,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.003843189765757564</v>
+        <v>0.003832194112132081</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2</v>
@@ -2789,7 +2789,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>7001</v>
+        <v>7166</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0008621359841068806</v>
@@ -2798,7 +2798,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.003042248960660737</v>
+        <v>0.003114123529084241</v>
       </c>
     </row>
     <row r="6">
@@ -2815,19 +2815,19 @@
         <v>10395</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5119</v>
+        <v>6000</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>18530</v>
+        <v>18944</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.009492395171567899</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.004675051932100499</v>
+        <v>0.005478918264348464</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.01692136234281249</v>
+        <v>0.01729933727687234</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>5</v>
@@ -2836,19 +2836,19 @@
         <v>5193</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1868</v>
+        <v>1911</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>11994</v>
+        <v>12435</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.0043055730705046</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.001548759015355035</v>
+        <v>0.001584229665011136</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.009944511080794072</v>
+        <v>0.01031042648308455</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>15</v>
@@ -2857,19 +2857,19 @@
         <v>15588</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>9116</v>
+        <v>8670</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>25755</v>
+        <v>25927</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.006773832097553517</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.003961634064499157</v>
+        <v>0.003767516176354464</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01119196493026118</v>
+        <v>0.01126676114435674</v>
       </c>
     </row>
     <row r="7">
@@ -2886,19 +2886,19 @@
         <v>1083604</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1075424</v>
+        <v>1074865</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1088923</v>
+        <v>1088711</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9895399027162511</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9820703289196143</v>
+        <v>0.9815596342177114</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9943974328921983</v>
+        <v>0.9942035446651079</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1133</v>
@@ -2907,19 +2907,19 @@
         <v>1197869</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1190410</v>
+        <v>1190306</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>1202124</v>
+        <v>1202259</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.993170157304237</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9869857631248695</v>
+        <v>0.9868988956030227</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9966979315192241</v>
+        <v>0.9968094528782886</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2155</v>
@@ -2928,19 +2928,19 @@
         <v>2281473</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2270237</v>
+        <v>2270782</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>2288754</v>
+        <v>2289223</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9914426238583829</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9865599138644665</v>
+        <v>0.986796767235665</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9946064770871746</v>
+        <v>0.9948104928524734</v>
       </c>
     </row>
     <row r="8">
@@ -3048,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>5309</v>
+        <v>4510</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.001035497739956704</v>
@@ -3057,7 +3057,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.005466323304408723</v>
+        <v>0.004643654729415749</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1</v>
@@ -3069,7 +3069,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>5027</v>
+        <v>5059</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.0005394424504021493</v>
@@ -3078,7 +3078,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.002696401423691707</v>
+        <v>0.002713362994500966</v>
       </c>
     </row>
     <row r="10">
@@ -3098,7 +3098,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5230</v>
+        <v>5246</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.001171763674247871</v>
@@ -3107,7 +3107,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.005855244439556723</v>
+        <v>0.005873194244959475</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -3132,7 +3132,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>5223</v>
+        <v>5270</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0005613334981714589</v>
@@ -3141,7 +3141,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.002801288831702603</v>
+        <v>0.002826610519765097</v>
       </c>
     </row>
     <row r="11">
@@ -3158,19 +3158,19 @@
         <v>6175</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2120</v>
+        <v>2129</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>13469</v>
+        <v>14227</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.006913991841582786</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.002373711204665607</v>
+        <v>0.002383470599572628</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01508057052841642</v>
+        <v>0.0159287444322252</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>2</v>
@@ -3182,7 +3182,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>6225</v>
+        <v>5853</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.001890696221293162</v>
@@ -3191,7 +3191,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.006409016152236764</v>
+        <v>0.006025641731192698</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>7</v>
@@ -3200,19 +3200,19 @@
         <v>8012</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>3151</v>
+        <v>3622</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>16434</v>
+        <v>16415</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.004297106459856389</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.001690192803090206</v>
+        <v>0.001942592284022169</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.008814520444630365</v>
+        <v>0.008804165688708716</v>
       </c>
     </row>
     <row r="12">
@@ -3229,19 +3229,19 @@
         <v>885933</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>878323</v>
+        <v>878118</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>890986</v>
+        <v>891004</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9919142444841693</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9833941384327876</v>
+        <v>0.9831643140061535</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9975714490786318</v>
+        <v>0.9975917976565551</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>916</v>
@@ -3250,19 +3250,19 @@
         <v>968433</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>964249</v>
+        <v>963027</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>970442</v>
+        <v>970436</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9970738060387502</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9927663561628572</v>
+        <v>0.9915083096081961</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9991425801463506</v>
+        <v>0.999136290739751</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1775</v>
@@ -3271,19 +3271,19 @@
         <v>1854366</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1844922</v>
+        <v>1845333</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1859518</v>
+        <v>1859565</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.99460211759157</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9895365108194216</v>
+        <v>0.9897570394538763</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9973655363067688</v>
+        <v>0.9973904594641262</v>
       </c>
     </row>
     <row r="13">
@@ -3469,19 +3469,19 @@
         <v>4462</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1104</v>
+        <v>1124</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10977</v>
+        <v>11920</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.005549301574653739</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.001372589467423318</v>
+        <v>0.001397830209782783</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01365197580410899</v>
+        <v>0.01482494605584096</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -3493,7 +3493,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>4658</v>
+        <v>4682</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.001254127508689564</v>
@@ -3502,7 +3502,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.006291897049088245</v>
+        <v>0.006324402801031159</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5</v>
@@ -3511,19 +3511,19 @@
         <v>5390</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2030</v>
+        <v>2041</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>11720</v>
+        <v>13006</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.003490419025103293</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.001314460935710899</v>
+        <v>0.001321582117180673</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.007588979791965098</v>
+        <v>0.008421434414980835</v>
       </c>
     </row>
     <row r="17">
@@ -3540,19 +3540,19 @@
         <v>799605</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>793090</v>
+        <v>792147</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>802963</v>
+        <v>802943</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9944506984253463</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9863480241958906</v>
+        <v>0.9851750539441603</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9986274105325766</v>
+        <v>0.9986021697902172</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>699</v>
@@ -3561,7 +3561,7 @@
         <v>739351</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>735621</v>
+        <v>735597</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>740279</v>
@@ -3570,7 +3570,7 @@
         <v>0.9987458724913104</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9937081029509118</v>
+        <v>0.9936755971989688</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -3582,19 +3582,19 @@
         <v>1538957</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1532627</v>
+        <v>1531341</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1542317</v>
+        <v>1542306</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9965095809748967</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.992411020208035</v>
+        <v>0.9915785655850192</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.998685539064289</v>
+        <v>0.9986784178828193</v>
       </c>
     </row>
     <row r="18">
@@ -3783,7 +3783,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>8117</v>
+        <v>8923</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.004956298916306168</v>
@@ -3792,7 +3792,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.01634123529076766</v>
+        <v>0.01796477868844745</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1</v>
@@ -3804,7 +3804,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>5054</v>
+        <v>4644</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.002105936007069058</v>
@@ -3813,7 +3813,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.01059722603630332</v>
+        <v>0.009737216039040725</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>3</v>
@@ -3822,19 +3822,19 @@
         <v>3466</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>9714</v>
+        <v>9357</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.003560137718615369</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.001034950540547818</v>
+        <v>0.001029198329822986</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.009976976825259292</v>
+        <v>0.009610212295806594</v>
       </c>
     </row>
     <row r="22">
@@ -3851,7 +3851,7 @@
         <v>494259</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>488604</v>
+        <v>487798</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>496721</v>
@@ -3860,7 +3860,7 @@
         <v>0.9950437010836938</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9836587647092324</v>
+        <v>0.9820352213115525</v>
       </c>
       <c r="I22" s="6" t="n">
         <v>1</v>
@@ -3872,7 +3872,7 @@
         <v>475892</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>471842</v>
+        <v>472252</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>476896</v>
@@ -3881,7 +3881,7 @@
         <v>0.9978940639929309</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9894027739636967</v>
+        <v>0.9902627839609593</v>
       </c>
       <c r="P22" s="6" t="n">
         <v>1</v>
@@ -3893,19 +3893,19 @@
         <v>970151</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>963903</v>
+        <v>964260</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>972609</v>
+        <v>972615</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9964398622813846</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9900230231747407</v>
+        <v>0.9903897877041934</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9989650494594522</v>
+        <v>0.9989708016701769</v>
       </c>
     </row>
     <row r="23">
@@ -4010,19 +4010,19 @@
         <v>3126</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>8435</v>
+        <v>8417</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.0009209051134490751</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.0002957332945329179</v>
+        <v>0.0002953397548841629</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.002484850927708433</v>
+        <v>0.002479655108804014</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>3</v>
@@ -4031,19 +4031,19 @@
         <v>3126</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>9328</v>
+        <v>9280</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.0004677245780770359</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0001506827459738028</v>
+        <v>0.0001503272818655039</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.001395681317269814</v>
+        <v>0.001388443883958141</v>
       </c>
     </row>
     <row r="25">
@@ -4063,7 +4063,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>7335</v>
+        <v>7396</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0006403939724395536</v>
@@ -4072,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.002230013416848402</v>
+        <v>0.002248843686982771</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1</v>
@@ -4084,7 +4084,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>4625</v>
+        <v>5126</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0002722674037898578</v>
@@ -4093,7 +4093,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.001362369048080042</v>
+        <v>0.001509948524717998</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>3</v>
@@ -4102,19 +4102,19 @@
         <v>3030</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>8663</v>
+        <v>9184</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0004534237390397719</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0001381392408413035</v>
+        <v>0.0001384686167869225</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.001296174910675339</v>
+        <v>0.001374119448594393</v>
       </c>
     </row>
     <row r="26">
@@ -4131,19 +4131,19 @@
         <v>23494</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>14629</v>
+        <v>15157</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>33687</v>
+        <v>34411</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.007143171055830573</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.004447737458220408</v>
+        <v>0.004608408730113921</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.0102424045969242</v>
+        <v>0.01046239807612433</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>9</v>
@@ -4152,19 +4152,19 @@
         <v>8962</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>4564</v>
+        <v>3988</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>16182</v>
+        <v>16718</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.002640133705705746</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.001344423970482554</v>
+        <v>0.001174920380321724</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.004766950659852369</v>
+        <v>0.004924829855518582</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>30</v>
@@ -4173,19 +4173,19 @@
         <v>32456</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>22282</v>
+        <v>21375</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>45037</v>
+        <v>44871</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.004856093686085098</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.003333908491994383</v>
+        <v>0.003198145074626152</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.006738419033114298</v>
+        <v>0.006713677609820226</v>
       </c>
     </row>
     <row r="27">
@@ -4202,19 +4202,19 @@
         <v>3263402</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>3252700</v>
+        <v>3251918</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>3273144</v>
+        <v>3272649</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.9922164349717298</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.988962730459921</v>
+        <v>0.98872487983239</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.995178457834837</v>
+        <v>0.9950278579515147</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>3190</v>
@@ -4223,19 +4223,19 @@
         <v>3381545</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>3373078</v>
+        <v>3372882</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>3387010</v>
+        <v>3387829</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.9961666937770554</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.9936723831937019</v>
+        <v>0.9936146379652144</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.9977767075522063</v>
+        <v>0.9980180014774609</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>6293</v>
@@ -4244,19 +4244,19 @@
         <v>6644946</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>6631623</v>
+        <v>6630216</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>6656217</v>
+        <v>6656364</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.994222757996798</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.9922292925136231</v>
+        <v>0.9920187489826615</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9959090423879773</v>
+        <v>0.9959309905252277</v>
       </c>
     </row>
     <row r="28">
